--- a/data/trans_orig/P32A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P32A-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{090E6349-410B-4C2B-8B41-815534CC4612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{131B743D-4988-4A9F-B676-1088173274C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1EBDB107-58D2-4579-B883-175351A78488}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B52DAFCB-5437-4F20-BD1A-5FB0BB0853DC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="434">
   <si>
     <t>Población según si le ha molestado que le critiquen su forma de beber en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>3,3%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -95,1204 +95,1252 @@
     <t>2,2%</t>
   </si>
   <si>
-    <t>0,87%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2012 (Tasa respuesta: 44,15%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2015 (Tasa respuesta: 45,5%)</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
   </si>
   <si>
     <t>4,88%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
   </si>
   <si>
     <t>95,12%</t>
   </si>
   <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
   </si>
   <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
   </si>
   <si>
     <t>98,0%</t>
   </si>
   <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2023 (Tasa respuesta: 31,75%)</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
   </si>
   <si>
     <t>98,59%</t>
   </si>
   <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2012 (Tasa respuesta: 44,15%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
   </si>
   <si>
     <t>98,91%</t>
   </si>
   <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2015 (Tasa respuesta: 45,5%)</t>
-  </si>
-  <si>
-    <t>5,24%</t>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
   </si>
   <si>
     <t>2,38%</t>
   </si>
   <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
   </si>
   <si>
     <t>97,62%</t>
   </si>
   <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2023 (Tasa respuesta: 31,75%)</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
+    <t>99,81%</t>
   </si>
   <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
   </si>
   <si>
     <t>1,71%</t>
   </si>
   <si>
-    <t>2,37%</t>
+    <t>1,27%</t>
   </si>
   <si>
     <t>98,2%</t>
   </si>
   <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
   </si>
   <si>
     <t>98,29%</t>
   </si>
   <si>
-    <t>97,63%</t>
+    <t>98,73%</t>
   </si>
 </sst>
 </file>
@@ -1704,7 +1752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D91256-F18C-433A-AFF3-43BE7BC81440}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765E945B-E308-47B1-AA5D-49C10CC0A2C3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2299,7 +2347,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2308,13 +2356,13 @@
         <v>924</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -2323,13 +2371,13 @@
         <v>2883</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2344,10 +2392,10 @@
         <v>235935</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>24</v>
@@ -2359,10 +2407,10 @@
         <v>130002</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>24</v>
@@ -2374,13 +2422,13 @@
         <v>365939</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,7 +2484,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2448,13 +2496,13 @@
         <v>895</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2469,7 +2517,7 @@
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2478,13 +2526,13 @@
         <v>895</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2499,10 +2547,10 @@
         <v>96003</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>24</v>
@@ -2517,7 +2565,7 @@
         <v>24</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -2529,10 +2577,10 @@
         <v>143299</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>24</v>
@@ -2591,7 +2639,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2603,13 +2651,13 @@
         <v>1733</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2624,7 +2672,7 @@
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2633,13 +2681,13 @@
         <v>1733</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,10 +2702,10 @@
         <v>192551</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>24</v>
@@ -2672,7 +2720,7 @@
         <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -2684,10 +2732,10 @@
         <v>303313</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>24</v>
@@ -2943,13 +2991,13 @@
         <v>4577</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>108</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,10 +3042,10 @@
         <v>728249</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>114</v>
@@ -3089,7 +3137,7 @@
         <v>119</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="M28" s="7">
         <v>23</v>
@@ -3137,7 +3185,7 @@
         <v>126</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>127</v>
@@ -3235,7 +3283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABA8DED-F6BA-4799-87C4-B82A3447690B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2713B7A-41A9-4980-B0A4-0FDABCCCA6FB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3502,7 +3550,7 @@
         <v>135</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3511,13 +3559,13 @@
         <v>1028</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -3526,13 +3574,13 @@
         <v>5279</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3595,13 @@
         <v>304822</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H8" s="7">
         <v>138</v>
@@ -3562,10 +3610,10 @@
         <v>150334</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>24</v>
@@ -3577,13 +3625,13 @@
         <v>455155</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3699,13 @@
         <v>935</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3672,7 +3720,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3681,13 +3729,13 @@
         <v>935</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,10 +3750,10 @@
         <v>200511</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>24</v>
@@ -3720,7 +3768,7 @@
         <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -3732,10 +3780,10 @@
         <v>324094</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>24</v>
@@ -3806,13 +3854,13 @@
         <v>24624</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -3821,13 +3869,13 @@
         <v>5044</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -3836,13 +3884,13 @@
         <v>29668</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,13 +3905,13 @@
         <v>341730</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H14" s="7">
         <v>174</v>
@@ -3872,13 +3920,13 @@
         <v>191990</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>490</v>
@@ -3887,13 +3935,13 @@
         <v>533720</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,7 +3997,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3961,13 +4009,13 @@
         <v>5138</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3976,13 +4024,13 @@
         <v>893</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -3991,13 +4039,13 @@
         <v>6031</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,13 +4060,13 @@
         <v>123070</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>177</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -4027,10 +4075,10 @@
         <v>53216</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>24</v>
@@ -4042,13 +4090,13 @@
         <v>176286</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,7 +4152,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4116,13 +4164,13 @@
         <v>1054</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4131,13 +4179,13 @@
         <v>1027</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4146,13 +4194,13 @@
         <v>2081</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,10 +4215,10 @@
         <v>181779</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>24</v>
@@ -4182,10 +4230,10 @@
         <v>94206</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>24</v>
@@ -4197,10 +4245,10 @@
         <v>275985</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>24</v>
@@ -4271,13 +4319,13 @@
         <v>9237</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -4286,13 +4334,13 @@
         <v>1002</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>198</v>
+        <v>17</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -4301,13 +4349,13 @@
         <v>10239</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>11</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,13 +4370,13 @@
         <v>385417</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H23" s="7">
         <v>191</v>
@@ -4337,10 +4385,10 @@
         <v>210215</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>24</v>
@@ -4352,13 +4400,13 @@
         <v>595632</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>112</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,13 +4474,13 @@
         <v>6421</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4447,7 +4495,7 @@
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -4456,13 +4504,13 @@
         <v>6421</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>194</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,13 +4525,13 @@
         <v>446392</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="H26" s="7">
         <v>194</v>
@@ -4495,7 +4543,7 @@
         <v>24</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>26</v>
@@ -4507,13 +4555,13 @@
         <v>658300</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>200</v>
+        <v>67</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,13 +4629,13 @@
         <v>51661</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H28" s="7">
         <v>8</v>
@@ -4596,13 +4644,13 @@
         <v>8993</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>217</v>
+        <v>18</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>171</v>
+        <v>230</v>
       </c>
       <c r="M28" s="7">
         <v>56</v>
@@ -4611,13 +4659,13 @@
         <v>60654</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,13 +4680,13 @@
         <v>1983719</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="H29" s="7">
         <v>951</v>
@@ -4647,13 +4695,13 @@
         <v>1035453</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>178</v>
+        <v>236</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="M29" s="7">
         <v>2817</v>
@@ -4662,13 +4710,13 @@
         <v>3019172</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>228</v>
+        <v>169</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,7 +4796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1B4B1D-9C97-4F2D-BC19-7A4A6A8A88DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CCA8D8-22A8-43F5-A4B5-BF32B77FDF86}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4765,7 +4813,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4872,13 +4920,13 @@
         <v>9356</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4887,13 +4935,13 @@
         <v>3846</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -4902,13 +4950,13 @@
         <v>13202</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,13 +4971,13 @@
         <v>169316</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>113</v>
       </c>
       <c r="H5" s="7">
         <v>101</v>
@@ -4938,13 +4986,13 @@
         <v>102315</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="M5" s="7">
         <v>258</v>
@@ -4953,13 +5001,13 @@
         <v>271631</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,13 +5075,13 @@
         <v>6584</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5042,13 +5090,13 @@
         <v>1109</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -5057,13 +5105,13 @@
         <v>7693</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>83</v>
+        <v>261</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5078,13 +5126,13 @@
         <v>261154</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="H8" s="7">
         <v>96</v>
@@ -5093,10 +5141,10 @@
         <v>101150</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>24</v>
@@ -5108,13 +5156,13 @@
         <v>362304</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>87</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,13 +5230,13 @@
         <v>865</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>260</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5203,7 +5251,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -5212,13 +5260,13 @@
         <v>865</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,10 +5281,10 @@
         <v>204250</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>265</v>
+        <v>67</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>24</v>
@@ -5251,7 +5299,7 @@
         <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -5263,10 +5311,10 @@
         <v>325826</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>24</v>
@@ -5343,7 +5391,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5358,7 +5406,7 @@
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>96</v>
+        <v>278</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -5373,7 +5421,7 @@
         <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,7 +5439,7 @@
         <v>51</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>24</v>
@@ -5406,7 +5454,7 @@
         <v>24</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>281</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -5421,7 +5469,7 @@
         <v>126</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>24</v>
@@ -5480,7 +5528,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5492,13 +5540,13 @@
         <v>2857</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5513,7 +5561,7 @@
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -5522,13 +5570,13 @@
         <v>2857</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>287</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,13 +5591,13 @@
         <v>88320</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -5561,7 +5609,7 @@
         <v>24</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -5573,13 +5621,13 @@
         <v>125795</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,7 +5683,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5650,10 +5698,10 @@
         <v>94</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>197</v>
+        <v>297</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -5662,13 +5710,13 @@
         <v>2135</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>287</v>
+        <v>158</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -5677,13 +5725,13 @@
         <v>4872</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5701,10 +5749,10 @@
         <v>99</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>203</v>
+        <v>302</v>
       </c>
       <c r="H20" s="7">
         <v>103</v>
@@ -5713,10 +5761,10 @@
         <v>103466</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>291</v>
+        <v>166</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>24</v>
@@ -5728,13 +5776,13 @@
         <v>289782</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,13 +5850,13 @@
         <v>14473</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -5817,13 +5865,13 @@
         <v>4258</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>296</v>
+        <v>50</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -5832,13 +5880,13 @@
         <v>18731</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>301</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5853,13 +5901,13 @@
         <v>365299</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="H23" s="7">
         <v>236</v>
@@ -5868,13 +5916,13 @@
         <v>251130</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>305</v>
+        <v>55</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="M23" s="7">
         <v>553</v>
@@ -5883,13 +5931,13 @@
         <v>616429</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>309</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>310</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,13 +6005,13 @@
         <v>1872</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -5972,13 +6020,13 @@
         <v>4136</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>218</v>
+        <v>319</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -5990,10 +6038,10 @@
         <v>120</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>321</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,10 +6056,10 @@
         <v>454554</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>268</v>
+        <v>323</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>24</v>
@@ -6023,13 +6071,13 @@
         <v>259921</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>226</v>
+        <v>326</v>
       </c>
       <c r="M26" s="7">
         <v>670</v>
@@ -6041,10 +6089,10 @@
         <v>128</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>154</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,13 +6160,13 @@
         <v>40012</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>63</v>
+        <v>329</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>317</v>
+        <v>214</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="H28" s="7">
         <v>14</v>
@@ -6127,13 +6175,13 @@
         <v>15484</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>96</v>
+        <v>278</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="M28" s="7">
         <v>51</v>
@@ -6142,13 +6190,13 @@
         <v>55495</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,13 +6211,13 @@
         <v>1961350</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>69</v>
+        <v>335</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>324</v>
+        <v>220</v>
       </c>
       <c r="H29" s="7">
         <v>1081</v>
@@ -6178,13 +6226,13 @@
         <v>1129828</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>101</v>
+        <v>281</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>284</v>
+        <v>338</v>
       </c>
       <c r="M29" s="7">
         <v>2938</v>
@@ -6193,13 +6241,13 @@
         <v>3091179</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6279,7 +6327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190C1906-376B-477B-BA8C-C66BCD8911D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D57872-9A1E-40CA-8AE0-26AE558CF8A5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6296,7 +6344,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6403,13 +6451,13 @@
         <v>1942</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6424,7 +6472,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -6433,13 +6481,13 @@
         <v>1942</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6454,10 +6502,10 @@
         <v>152538</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>24</v>
@@ -6472,7 +6520,7 @@
         <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -6484,10 +6532,10 @@
         <v>237495</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>24</v>
@@ -6558,13 +6606,13 @@
         <v>1376</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>341</v>
+        <v>193</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6594,7 +6642,7 @@
         <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>270</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6609,10 +6657,10 @@
         <v>246230</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>343</v>
+        <v>199</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>24</v>
@@ -6627,7 +6675,7 @@
         <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -6642,7 +6690,7 @@
         <v>54</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>272</v>
+        <v>355</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>24</v>
@@ -6713,13 +6761,13 @@
         <v>7741</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -6728,13 +6776,13 @@
         <v>1124</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -6743,13 +6791,13 @@
         <v>8865</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>300</v>
+        <v>361</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6764,13 +6812,13 @@
         <v>181201</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="H11" s="7">
         <v>123</v>
@@ -6779,10 +6827,10 @@
         <v>94674</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>24</v>
@@ -6794,13 +6842,13 @@
         <v>275875</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>310</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6868,13 +6916,13 @@
         <v>2612</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>95</v>
+        <v>269</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -6883,13 +6931,13 @@
         <v>1834</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>356</v>
+        <v>105</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>357</v>
+        <v>118</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>358</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -6898,13 +6946,13 @@
         <v>4446</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>105</v>
+        <v>371</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6919,13 +6967,13 @@
         <v>178965</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>360</v>
+        <v>323</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>100</v>
+        <v>273</v>
       </c>
       <c r="H14" s="7">
         <v>176</v>
@@ -6934,13 +6982,13 @@
         <v>132330</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>362</v>
+        <v>110</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>363</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>364</v>
+        <v>126</v>
       </c>
       <c r="M14" s="7">
         <v>333</v>
@@ -6949,13 +6997,13 @@
         <v>311295</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>110</v>
+        <v>374</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7011,7 +7059,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7029,7 +7077,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>366</v>
+        <v>37</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7038,13 +7086,13 @@
         <v>481</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7053,13 +7101,13 @@
         <v>481</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>174</v>
+        <v>378</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7077,7 +7125,7 @@
         <v>24</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>370</v>
+        <v>43</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -7089,10 +7137,10 @@
         <v>9315</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>24</v>
@@ -7104,10 +7152,10 @@
         <v>43845</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>181</v>
+        <v>382</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>24</v>
@@ -7166,7 +7214,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7178,13 +7226,13 @@
         <v>5208</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -7193,13 +7241,13 @@
         <v>2400</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>260</v>
+        <v>387</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>340</v>
+        <v>84</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -7208,13 +7256,13 @@
         <v>7609</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>317</v>
+        <v>390</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7229,13 +7277,13 @@
         <v>164216</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="H20" s="7">
         <v>145</v>
@@ -7244,13 +7292,13 @@
         <v>100936</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>395</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>342</v>
+        <v>89</v>
       </c>
       <c r="M20" s="7">
         <v>349</v>
@@ -7259,13 +7307,13 @@
         <v>265150</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>324</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7336,10 +7384,10 @@
         <v>31</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -7348,13 +7396,13 @@
         <v>8835</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>386</v>
+        <v>47</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="M22" s="7">
         <v>20</v>
@@ -7363,13 +7411,13 @@
         <v>15909</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7387,10 +7435,10 @@
         <v>38</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="H23" s="7">
         <v>275</v>
@@ -7399,13 +7447,13 @@
         <v>311661</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>393</v>
+        <v>52</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>203</v>
+        <v>23</v>
       </c>
       <c r="M23" s="7">
         <v>557</v>
@@ -7414,13 +7462,13 @@
         <v>613515</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7488,13 +7536,13 @@
         <v>3124</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>399</v>
+        <v>108</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>318</v>
+        <v>413</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -7503,13 +7551,13 @@
         <v>808</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -7518,13 +7566,13 @@
         <v>3932</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>270</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7539,13 +7587,13 @@
         <v>322840</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>323</v>
+        <v>419</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>404</v>
+        <v>114</v>
       </c>
       <c r="H26" s="7">
         <v>135</v>
@@ -7554,10 +7602,10 @@
         <v>120652</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>24</v>
@@ -7569,13 +7617,13 @@
         <v>443492</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>272</v>
+        <v>422</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7643,13 +7691,13 @@
         <v>29077</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>409</v>
+        <v>342</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="H28" s="7">
         <v>22</v>
@@ -7658,13 +7706,13 @@
         <v>15483</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="M28" s="7">
         <v>58</v>
@@ -7673,13 +7721,13 @@
         <v>44561</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>122</v>
+        <v>428</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>412</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7694,28 +7742,28 @@
         <v>1582375</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>415</v>
+        <v>347</v>
       </c>
       <c r="H29" s="7">
         <v>1173</v>
       </c>
       <c r="I29" s="7">
-        <v>971538</v>
+        <v>971539</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M29" s="7">
         <v>2718</v>
@@ -7724,13 +7772,13 @@
         <v>2553913</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>417</v>
+        <v>340</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>129</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7757,7 +7805,7 @@
         <v>1195</v>
       </c>
       <c r="I30" s="7">
-        <v>987021</v>
+        <v>987022</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>26</v>

--- a/data/trans_orig/P32A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P32A-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{131B743D-4988-4A9F-B676-1088173274C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13AA357E-2BD4-4AE3-9F9B-34E711EBB37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B52DAFCB-5437-4F20-BD1A-5FB0BB0853DC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{61FD10E4-115A-46F0-924E-7495AA65C9C5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="436">
   <si>
     <t>Población según si le ha molestado que le critiquen su forma de beber en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -77,1270 +77,1276 @@
     <t>3,3%</t>
   </si>
   <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2012 (Tasa respuesta: 44,15%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2016 (Tasa respuesta: 45,5%)</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2023 (Tasa respuesta: 31,75%)</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
   </si>
   <si>
     <t>99,3%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
   </si>
   <si>
     <t>99,77%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2012 (Tasa respuesta: 44,15%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2015 (Tasa respuesta: 45,5%)</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
   </si>
   <si>
     <t>99,12%</t>
   </si>
   <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
   </si>
   <si>
     <t>97,72%</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2023 (Tasa respuesta: 31,75%)</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
   </si>
 </sst>
 </file>
@@ -1752,7 +1758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765E945B-E308-47B1-AA5D-49C10CC0A2C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66623D14-9C57-4D39-83AB-2B2C9CD1E330}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2347,7 +2353,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2356,13 +2362,13 @@
         <v>924</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -2371,10 +2377,10 @@
         <v>2883</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>62</v>
@@ -2395,7 +2401,7 @@
         <v>63</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>24</v>
@@ -2407,10 +2413,10 @@
         <v>130002</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>24</v>
@@ -2422,13 +2428,13 @@
         <v>365939</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2997,7 +3003,7 @@
         <v>108</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,13 +3018,13 @@
         <v>490347</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H26" s="7">
         <v>227</v>
@@ -3027,10 +3033,10 @@
         <v>237903</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>24</v>
@@ -3045,10 +3051,10 @@
         <v>78</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,13 +3122,13 @@
         <v>20089</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -3131,13 +3137,13 @@
         <v>2959</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="M28" s="7">
         <v>23</v>
@@ -3146,13 +3152,13 @@
         <v>23048</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3167,13 +3173,13 @@
         <v>1860815</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="H29" s="7">
         <v>870</v>
@@ -3185,25 +3191,25 @@
         <v>126</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M29" s="7">
         <v>2696</v>
       </c>
       <c r="N29" s="7">
-        <v>2751355</v>
+        <v>2751356</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,7 +3251,7 @@
         <v>2719</v>
       </c>
       <c r="N30" s="7">
-        <v>2774403</v>
+        <v>2774404</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>26</v>
@@ -3283,7 +3289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2713B7A-41A9-4980-B0A4-0FDABCCCA6FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0B58DB-E0F3-4570-A4A4-FE455AC3DDEB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3544,13 +3550,13 @@
         <v>4251</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3559,13 +3565,13 @@
         <v>1028</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -3574,13 +3580,13 @@
         <v>5279</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,13 +3601,13 @@
         <v>304822</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H8" s="7">
         <v>138</v>
@@ -3610,10 +3616,10 @@
         <v>150334</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>24</v>
@@ -3625,13 +3631,13 @@
         <v>455155</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,13 +3705,13 @@
         <v>935</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3720,7 +3726,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3729,13 +3735,13 @@
         <v>935</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,10 +3756,10 @@
         <v>200511</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>24</v>
@@ -3768,7 +3774,7 @@
         <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -3780,10 +3786,10 @@
         <v>324094</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>24</v>
@@ -3854,13 +3860,13 @@
         <v>24624</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -3869,13 +3875,13 @@
         <v>5044</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -3884,13 +3890,13 @@
         <v>29668</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3905,13 +3911,13 @@
         <v>341730</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H14" s="7">
         <v>174</v>
@@ -3920,13 +3926,13 @@
         <v>191990</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="M14" s="7">
         <v>490</v>
@@ -3935,13 +3941,13 @@
         <v>533720</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4009,13 +4015,13 @@
         <v>5138</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4024,13 +4030,13 @@
         <v>893</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -4039,13 +4045,13 @@
         <v>6031</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4060,13 +4066,13 @@
         <v>123070</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -4075,10 +4081,10 @@
         <v>53216</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>24</v>
@@ -4090,13 +4096,13 @@
         <v>176286</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,13 +4170,13 @@
         <v>1054</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4179,13 +4185,13 @@
         <v>1027</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4194,13 +4200,13 @@
         <v>2081</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,10 +4221,10 @@
         <v>181779</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>24</v>
@@ -4230,10 +4236,10 @@
         <v>94206</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>24</v>
@@ -4245,10 +4251,10 @@
         <v>275985</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>24</v>
@@ -4319,13 +4325,13 @@
         <v>9237</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -4334,13 +4340,13 @@
         <v>1002</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -4349,13 +4355,13 @@
         <v>10239</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4370,13 +4376,13 @@
         <v>385417</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>209</v>
+        <v>124</v>
       </c>
       <c r="H23" s="7">
         <v>191</v>
@@ -4385,10 +4391,10 @@
         <v>210215</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>27</v>
+        <v>206</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>24</v>
@@ -4400,13 +4406,13 @@
         <v>595632</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,13 +4480,13 @@
         <v>6421</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4495,7 +4501,7 @@
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -4504,13 +4510,13 @@
         <v>6421</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>62</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,13 +4531,13 @@
         <v>446392</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H26" s="7">
         <v>194</v>
@@ -4543,7 +4549,7 @@
         <v>24</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>26</v>
@@ -4555,13 +4561,13 @@
         <v>658300</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>67</v>
+        <v>222</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,13 +4635,13 @@
         <v>51661</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H28" s="7">
         <v>8</v>
@@ -4644,13 +4650,13 @@
         <v>8993</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>18</v>
+        <v>226</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="M28" s="7">
         <v>56</v>
@@ -4659,13 +4665,13 @@
         <v>60654</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>161</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,13 +4686,13 @@
         <v>1983719</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H29" s="7">
         <v>951</v>
@@ -4695,13 +4701,13 @@
         <v>1035453</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>29</v>
+        <v>233</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M29" s="7">
         <v>2817</v>
@@ -4710,13 +4716,13 @@
         <v>3019172</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>169</v>
+        <v>236</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,7 +4802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CCA8D8-22A8-43F5-A4B5-BF32B77FDF86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B03CBC-926A-424E-B5F2-7938CAD2FD8C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4813,7 +4819,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4920,13 +4926,13 @@
         <v>9356</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4935,13 +4941,13 @@
         <v>3846</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -4950,13 +4956,13 @@
         <v>13202</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,13 +4977,13 @@
         <v>169316</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H5" s="7">
         <v>101</v>
@@ -4986,13 +4992,13 @@
         <v>102315</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>252</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>253</v>
+        <v>29</v>
       </c>
       <c r="M5" s="7">
         <v>258</v>
@@ -5001,13 +5007,13 @@
         <v>271631</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,13 +5081,13 @@
         <v>6584</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>256</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>258</v>
+        <v>19</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5090,13 +5096,13 @@
         <v>1109</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -5105,13 +5111,13 @@
         <v>7693</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>261</v>
+        <v>81</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,13 +5132,13 @@
         <v>261154</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>264</v>
+        <v>28</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>112</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>96</v>
@@ -5141,10 +5147,10 @@
         <v>101150</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>24</v>
@@ -5156,13 +5162,13 @@
         <v>362304</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5230,13 +5236,13 @@
         <v>865</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>266</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5251,7 +5257,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>96</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -5260,13 +5266,13 @@
         <v>865</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,10 +5287,10 @@
         <v>204250</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>67</v>
+        <v>270</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>24</v>
@@ -5299,7 +5305,7 @@
         <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>101</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -5311,10 +5317,10 @@
         <v>325826</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>24</v>
@@ -5391,7 +5397,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5406,7 +5412,7 @@
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -5415,13 +5421,13 @@
         <v>1267</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,7 +5445,7 @@
         <v>51</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>24</v>
@@ -5454,7 +5460,7 @@
         <v>24</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -5469,7 +5475,7 @@
         <v>126</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>24</v>
@@ -5540,13 +5546,13 @@
         <v>2857</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5561,7 +5567,7 @@
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -5570,13 +5576,13 @@
         <v>2857</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5591,13 +5597,13 @@
         <v>88320</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -5609,7 +5615,7 @@
         <v>24</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -5618,16 +5624,16 @@
         <v>128</v>
       </c>
       <c r="N17" s="7">
-        <v>125795</v>
+        <v>125794</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,7 +5675,7 @@
         <v>131</v>
       </c>
       <c r="N18" s="7">
-        <v>128652</v>
+        <v>128651</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>26</v>
@@ -5698,10 +5704,10 @@
         <v>94</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>297</v>
+        <v>199</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>298</v>
+        <v>242</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -5710,13 +5716,13 @@
         <v>2135</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>158</v>
+        <v>292</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -5725,13 +5731,13 @@
         <v>4872</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>73</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5749,10 +5755,10 @@
         <v>99</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>301</v>
+        <v>250</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>302</v>
+        <v>205</v>
       </c>
       <c r="H20" s="7">
         <v>103</v>
@@ -5761,10 +5767,10 @@
         <v>103466</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>166</v>
+        <v>295</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>24</v>
@@ -5776,10 +5782,10 @@
         <v>289782</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>78</v>
@@ -5850,13 +5856,13 @@
         <v>14473</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -5865,13 +5871,13 @@
         <v>4258</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>50</v>
+        <v>299</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -5880,13 +5886,13 @@
         <v>18731</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>35</v>
+        <v>303</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5901,13 +5907,13 @@
         <v>365299</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="H23" s="7">
         <v>236</v>
@@ -5916,13 +5922,13 @@
         <v>251130</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>55</v>
+        <v>307</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="M23" s="7">
         <v>553</v>
@@ -5931,13 +5937,13 @@
         <v>616429</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>168</v>
+        <v>311</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>42</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6005,13 +6011,13 @@
         <v>1872</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>139</v>
+        <v>313</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>317</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -6020,13 +6026,13 @@
         <v>4136</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -6035,13 +6041,13 @@
         <v>6009</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>321</v>
+        <v>145</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6056,10 +6062,10 @@
         <v>454554</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>147</v>
+        <v>317</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>323</v>
+        <v>185</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>24</v>
@@ -6071,13 +6077,13 @@
         <v>259921</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="M26" s="7">
         <v>670</v>
@@ -6086,13 +6092,13 @@
         <v>714473</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>328</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6160,13 +6166,13 @@
         <v>40012</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>214</v>
+        <v>322</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="H28" s="7">
         <v>14</v>
@@ -6175,13 +6181,13 @@
         <v>15484</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>331</v>
+        <v>190</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="M28" s="7">
         <v>51</v>
@@ -6190,13 +6196,13 @@
         <v>55495</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,13 +6217,13 @@
         <v>1961350</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="H29" s="7">
         <v>1081</v>
@@ -6226,13 +6232,13 @@
         <v>1129828</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>338</v>
+        <v>196</v>
       </c>
       <c r="M29" s="7">
         <v>2938</v>
@@ -6241,13 +6247,13 @@
         <v>3091179</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>281</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6327,7 +6333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D57872-9A1E-40CA-8AE0-26AE558CF8A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9116BDF-5A80-45DC-988E-D3EA07B59FE4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6344,7 +6350,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6451,13 +6457,13 @@
         <v>1942</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6472,7 +6478,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -6481,13 +6487,13 @@
         <v>1942</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>345</v>
+        <v>202</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6502,10 +6508,10 @@
         <v>152538</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>24</v>
@@ -6520,7 +6526,7 @@
         <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -6532,10 +6538,10 @@
         <v>237495</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>209</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>24</v>
@@ -6606,13 +6612,13 @@
         <v>1376</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>193</v>
+        <v>345</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6627,7 +6633,7 @@
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -6642,7 +6648,7 @@
         <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6657,10 +6663,10 @@
         <v>246230</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>199</v>
+        <v>348</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>24</v>
@@ -6675,7 +6681,7 @@
         <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -6690,7 +6696,7 @@
         <v>54</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>24</v>
@@ -6761,13 +6767,13 @@
         <v>7741</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -6776,13 +6782,13 @@
         <v>1124</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -6791,13 +6797,13 @@
         <v>8865</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6812,13 +6818,13 @@
         <v>181201</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="H11" s="7">
         <v>123</v>
@@ -6827,10 +6833,10 @@
         <v>94674</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>24</v>
@@ -6842,13 +6848,13 @@
         <v>275875</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6916,13 +6922,13 @@
         <v>2612</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -6931,13 +6937,13 @@
         <v>1834</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>105</v>
+        <v>363</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>364</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -6946,13 +6952,13 @@
         <v>4446</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6967,13 +6973,13 @@
         <v>178965</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>323</v>
+        <v>237</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H14" s="7">
         <v>176</v>
@@ -6982,10 +6988,10 @@
         <v>132330</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>110</v>
+        <v>368</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>369</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>126</v>
@@ -6997,10 +7003,10 @@
         <v>311295</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>51</v>
@@ -7077,7 +7083,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>37</v>
+        <v>372</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7086,13 +7092,13 @@
         <v>481</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7101,13 +7107,13 @@
         <v>481</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7125,7 +7131,7 @@
         <v>24</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>43</v>
+        <v>377</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -7137,10 +7143,10 @@
         <v>9315</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>24</v>
@@ -7152,10 +7158,10 @@
         <v>43845</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>24</v>
@@ -7226,13 +7232,13 @@
         <v>5208</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -7241,13 +7247,13 @@
         <v>2400</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>84</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -7256,13 +7262,13 @@
         <v>7609</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7277,13 +7283,13 @@
         <v>164216</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="H20" s="7">
         <v>145</v>
@@ -7292,10 +7298,10 @@
         <v>100936</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>89</v>
@@ -7307,13 +7313,13 @@
         <v>265150</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7384,10 +7390,10 @@
         <v>31</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -7399,10 +7405,10 @@
         <v>47</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>400</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M22" s="7">
         <v>20</v>
@@ -7411,13 +7417,13 @@
         <v>15909</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7435,10 +7441,10 @@
         <v>38</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="H23" s="7">
         <v>275</v>
@@ -7450,10 +7456,10 @@
         <v>52</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="M23" s="7">
         <v>557</v>
@@ -7536,10 +7542,10 @@
         <v>3124</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>413</v>
@@ -7566,13 +7572,13 @@
         <v>3932</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>244</v>
+        <v>416</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7587,13 +7593,13 @@
         <v>322840</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>418</v>
+        <v>127</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>419</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>114</v>
+        <v>420</v>
       </c>
       <c r="H26" s="7">
         <v>135</v>
@@ -7602,10 +7608,10 @@
         <v>120652</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>24</v>
@@ -7617,13 +7623,13 @@
         <v>443492</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>253</v>
+        <v>423</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7691,13 +7697,13 @@
         <v>29077</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H28" s="7">
         <v>22</v>
@@ -7706,13 +7712,13 @@
         <v>15483</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>81</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M28" s="7">
         <v>58</v>
@@ -7721,13 +7727,13 @@
         <v>44561</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>428</v>
+        <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>334</v>
+        <v>430</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7742,13 +7748,13 @@
         <v>1582375</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="H29" s="7">
         <v>1173</v>
@@ -7757,10 +7763,10 @@
         <v>971539</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>86</v>
@@ -7772,13 +7778,13 @@
         <v>2553913</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>340</v>
+        <v>435</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>433</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P32A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P32A-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13AA357E-2BD4-4AE3-9F9B-34E711EBB37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FA64B85-A492-47B9-8C39-E773CDDBA35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{61FD10E4-115A-46F0-924E-7495AA65C9C5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7AE2C47C-B6C3-4BAD-BA2C-FBF4AC690B91}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="418">
   <si>
     <t>Población según si le ha molestado que le critiquen su forma de beber en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -71,16 +71,16 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>3,3%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -98,7 +98,7 @@
     <t>0,87%</t>
   </si>
   <si>
-    <t>4,97%</t>
+    <t>4,88%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,10 +107,10 @@
     <t>96,7%</t>
   </si>
   <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,7 +125,7 @@
     <t>97,8%</t>
   </si>
   <si>
-    <t>95,03%</t>
+    <t>95,12%</t>
   </si>
   <si>
     <t>99,13%</t>
@@ -140,7 +140,7 @@
     <t>0,9%</t>
   </si>
   <si>
-    <t>5,55%</t>
+    <t>5,54%</t>
   </si>
   <si>
     <t>2,62%</t>
@@ -152,13 +152,13 @@
     <t>0,68%</t>
   </si>
   <si>
-    <t>3,82%</t>
+    <t>3,83%</t>
   </si>
   <si>
     <t>97,71%</t>
   </si>
   <si>
-    <t>94,45%</t>
+    <t>94,46%</t>
   </si>
   <si>
     <t>99,1%</t>
@@ -170,7 +170,7 @@
     <t>98,26%</t>
   </si>
   <si>
-    <t>96,18%</t>
+    <t>96,17%</t>
   </si>
   <si>
     <t>99,32%</t>
@@ -182,1171 +182,1117 @@
     <t>0,54%</t>
   </si>
   <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2012 (Tasa respuesta: 44,15%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2016 (Tasa respuesta: 45,5%)</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2023 (Tasa respuesta: 31,75%)</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
     <t>2,76%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
   </si>
   <si>
     <t>97,24%</t>
   </si>
   <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
   </si>
   <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>0,83%</t>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
   </si>
   <si>
     <t>98,77%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2012 (Tasa respuesta: 44,15%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2016 (Tasa respuesta: 45,5%)</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
+    <t>98,29%</t>
   </si>
   <si>
     <t>97,63%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2023 (Tasa respuesta: 31,75%)</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
   </si>
 </sst>
 </file>
@@ -1758,7 +1704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66623D14-9C57-4D39-83AB-2B2C9CD1E330}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD6351E-2D02-4937-8224-CBB275976205}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2380,10 +2326,10 @@
         <v>61</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,10 +2344,10 @@
         <v>235935</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>24</v>
@@ -2413,10 +2359,10 @@
         <v>130002</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>24</v>
@@ -2428,13 +2374,13 @@
         <v>365939</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,7 +2436,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2502,13 +2448,13 @@
         <v>895</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2523,7 +2469,7 @@
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2532,13 +2478,13 @@
         <v>895</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,10 +2499,10 @@
         <v>96003</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>24</v>
@@ -2571,7 +2517,7 @@
         <v>24</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -2583,10 +2529,10 @@
         <v>143299</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>24</v>
@@ -2645,7 +2591,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2657,13 +2603,13 @@
         <v>1733</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2678,7 +2624,7 @@
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2687,13 +2633,13 @@
         <v>1733</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,10 +2654,10 @@
         <v>192551</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>24</v>
@@ -2726,7 +2672,7 @@
         <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -2738,10 +2684,10 @@
         <v>303313</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>24</v>
@@ -2997,13 +2943,13 @@
         <v>4577</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>108</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +2964,13 @@
         <v>490347</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H26" s="7">
         <v>227</v>
@@ -3033,10 +2979,10 @@
         <v>237903</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>24</v>
@@ -3048,13 +2994,13 @@
         <v>728249</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,13 +3068,13 @@
         <v>20089</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -3137,13 +3083,13 @@
         <v>2959</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="L28" s="7" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="M28" s="7">
         <v>23</v>
@@ -3152,13 +3098,13 @@
         <v>23048</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3119,13 @@
         <v>1860815</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H29" s="7">
         <v>870</v>
@@ -3191,25 +3137,25 @@
         <v>126</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M29" s="7">
         <v>2696</v>
       </c>
       <c r="N29" s="7">
-        <v>2751356</v>
+        <v>2751355</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,7 +3197,7 @@
         <v>2719</v>
       </c>
       <c r="N30" s="7">
-        <v>2774404</v>
+        <v>2774403</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>26</v>
@@ -3289,7 +3235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0B58DB-E0F3-4570-A4A4-FE455AC3DDEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B9AA52-79DE-4D5C-BD5B-7C917EDC08B4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3550,13 +3496,13 @@
         <v>4251</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3571,7 +3517,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -3580,13 +3526,13 @@
         <v>5279</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,13 +3547,13 @@
         <v>304822</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H8" s="7">
         <v>138</v>
@@ -3619,7 +3565,7 @@
         <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>24</v>
@@ -3631,13 +3577,13 @@
         <v>455155</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,13 +3651,13 @@
         <v>935</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3726,7 +3672,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3735,13 +3681,13 @@
         <v>935</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,10 +3702,10 @@
         <v>200511</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>24</v>
@@ -3774,7 +3720,7 @@
         <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -3786,10 +3732,10 @@
         <v>324094</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>24</v>
@@ -3860,13 +3806,13 @@
         <v>24624</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -3875,13 +3821,13 @@
         <v>5044</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>155</v>
+        <v>58</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>156</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -3890,13 +3836,13 @@
         <v>29668</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,13 +3857,13 @@
         <v>341730</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H14" s="7">
         <v>174</v>
@@ -3926,13 +3872,13 @@
         <v>191990</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>164</v>
+        <v>65</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>165</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>166</v>
+        <v>51</v>
       </c>
       <c r="M14" s="7">
         <v>490</v>
@@ -3941,13 +3887,13 @@
         <v>533720</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4003,7 +3949,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4015,13 +3961,13 @@
         <v>5138</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4030,13 +3976,13 @@
         <v>893</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -4045,13 +3991,13 @@
         <v>6031</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4066,13 +4012,13 @@
         <v>123070</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -4081,10 +4027,10 @@
         <v>53216</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>24</v>
@@ -4096,13 +4042,13 @@
         <v>176286</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,7 +4104,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4170,13 +4116,13 @@
         <v>1054</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4185,13 +4131,13 @@
         <v>1027</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4200,13 +4146,13 @@
         <v>2081</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4221,10 +4167,10 @@
         <v>181779</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>24</v>
@@ -4236,10 +4182,10 @@
         <v>94206</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>24</v>
@@ -4251,10 +4197,10 @@
         <v>275985</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>24</v>
@@ -4325,13 +4271,13 @@
         <v>9237</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -4340,13 +4286,13 @@
         <v>1002</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -4355,13 +4301,13 @@
         <v>10239</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>202</v>
+        <v>106</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>203</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,13 +4322,13 @@
         <v>385417</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="H23" s="7">
         <v>191</v>
@@ -4391,10 +4337,10 @@
         <v>210215</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>24</v>
@@ -4406,13 +4352,13 @@
         <v>595632</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>209</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4426,13 @@
         <v>6421</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4501,7 +4447,7 @@
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -4510,13 +4456,13 @@
         <v>6421</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>215</v>
+        <v>135</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,13 +4477,13 @@
         <v>446392</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="H26" s="7">
         <v>194</v>
@@ -4549,7 +4495,7 @@
         <v>24</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>26</v>
@@ -4561,13 +4507,13 @@
         <v>658300</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>223</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,13 +4581,13 @@
         <v>51661</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H28" s="7">
         <v>8</v>
@@ -4650,13 +4596,13 @@
         <v>8993</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M28" s="7">
         <v>56</v>
@@ -4665,13 +4611,13 @@
         <v>60654</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,10 +4635,10 @@
         <v>222</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H29" s="7">
         <v>951</v>
@@ -4701,13 +4647,13 @@
         <v>1035453</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="M29" s="7">
         <v>2817</v>
@@ -4716,13 +4662,13 @@
         <v>3019172</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,7 +4748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B03CBC-926A-424E-B5F2-7938CAD2FD8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC392370-1724-4B1A-8B1C-E9615645EE7E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4819,7 +4765,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4926,13 +4872,13 @@
         <v>9356</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4941,13 +4887,13 @@
         <v>3846</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -4956,13 +4902,13 @@
         <v>13202</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +4923,13 @@
         <v>169316</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>101</v>
@@ -4992,13 +4938,13 @@
         <v>102315</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>29</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>258</v>
@@ -5007,13 +4953,13 @@
         <v>271631</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5081,13 +5027,13 @@
         <v>6584</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>256</v>
+        <v>120</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>250</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5096,13 +5042,13 @@
         <v>1109</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -5111,13 +5057,13 @@
         <v>7693</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,13 +5078,13 @@
         <v>261154</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>128</v>
       </c>
       <c r="H8" s="7">
         <v>96</v>
@@ -5147,10 +5093,10 @@
         <v>101150</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>24</v>
@@ -5162,13 +5108,13 @@
         <v>362304</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,13 +5182,13 @@
         <v>865</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5257,7 +5203,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>96</v>
+        <v>261</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -5266,13 +5212,13 @@
         <v>865</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5287,10 +5233,10 @@
         <v>204250</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>24</v>
@@ -5305,7 +5251,7 @@
         <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>101</v>
+        <v>266</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -5317,10 +5263,10 @@
         <v>325826</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>24</v>
@@ -5397,7 +5343,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5412,7 +5358,7 @@
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>96</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -5421,13 +5367,13 @@
         <v>1267</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5445,7 +5391,7 @@
         <v>51</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>24</v>
@@ -5460,7 +5406,7 @@
         <v>24</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>275</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -5475,7 +5421,7 @@
         <v>126</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>24</v>
@@ -5534,7 +5480,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5546,13 +5492,13 @@
         <v>2857</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5567,7 +5513,7 @@
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -5576,13 +5522,13 @@
         <v>2857</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>281</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,13 +5543,13 @@
         <v>88320</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -5615,7 +5561,7 @@
         <v>24</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -5624,16 +5570,16 @@
         <v>128</v>
       </c>
       <c r="N17" s="7">
-        <v>125794</v>
+        <v>125795</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>288</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5675,7 +5621,7 @@
         <v>131</v>
       </c>
       <c r="N18" s="7">
-        <v>128651</v>
+        <v>128652</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>26</v>
@@ -5689,7 +5635,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5704,10 +5650,10 @@
         <v>94</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>242</v>
+        <v>285</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -5716,13 +5662,13 @@
         <v>2135</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -5731,13 +5677,13 @@
         <v>4872</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5755,10 +5701,10 @@
         <v>99</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H20" s="7">
         <v>103</v>
@@ -5767,10 +5713,10 @@
         <v>103466</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>24</v>
@@ -5782,13 +5728,13 @@
         <v>289782</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5856,13 +5802,13 @@
         <v>14473</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -5871,13 +5817,13 @@
         <v>4258</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -5886,13 +5832,13 @@
         <v>18731</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,13 +5853,13 @@
         <v>365299</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="H23" s="7">
         <v>236</v>
@@ -5922,13 +5868,13 @@
         <v>251130</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M23" s="7">
         <v>553</v>
@@ -5937,13 +5883,13 @@
         <v>616429</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,13 +5957,13 @@
         <v>1872</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>313</v>
+        <v>138</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -6026,13 +5972,13 @@
         <v>4136</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>313</v>
+        <v>218</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -6041,13 +5987,13 @@
         <v>6009</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,10 +6008,10 @@
         <v>454554</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>317</v>
+        <v>145</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>268</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>24</v>
@@ -6077,13 +6023,13 @@
         <v>259921</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>317</v>
+        <v>226</v>
       </c>
       <c r="M26" s="7">
         <v>670</v>
@@ -6092,13 +6038,13 @@
         <v>714473</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6166,13 +6112,13 @@
         <v>40012</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>321</v>
+        <v>63</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H28" s="7">
         <v>14</v>
@@ -6181,13 +6127,13 @@
         <v>15484</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>273</v>
+        <v>96</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>190</v>
+        <v>277</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="M28" s="7">
         <v>51</v>
@@ -6196,13 +6142,13 @@
         <v>55495</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6217,13 +6163,13 @@
         <v>1961350</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>328</v>
+        <v>69</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="H29" s="7">
         <v>1081</v>
@@ -6232,13 +6178,13 @@
         <v>1129828</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>275</v>
+        <v>101</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>196</v>
+        <v>284</v>
       </c>
       <c r="M29" s="7">
         <v>2938</v>
@@ -6247,13 +6193,13 @@
         <v>3091179</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6333,7 +6279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9116BDF-5A80-45DC-988E-D3EA07B59FE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65F3AD6-C85E-46AA-BC6A-3681B85ACC25}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6350,7 +6296,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6457,13 +6403,13 @@
         <v>1942</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6478,7 +6424,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -6487,13 +6433,13 @@
         <v>1942</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>202</v>
+        <v>333</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6508,10 +6454,10 @@
         <v>152538</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>24</v>
@@ -6526,7 +6472,7 @@
         <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -6538,10 +6484,10 @@
         <v>237495</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>209</v>
+        <v>338</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>24</v>
@@ -6612,13 +6558,13 @@
         <v>1376</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6633,7 +6579,7 @@
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -6648,7 +6594,7 @@
         <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>346</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6663,10 +6609,10 @@
         <v>246230</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>24</v>
@@ -6681,7 +6627,7 @@
         <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -6696,7 +6642,7 @@
         <v>54</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>349</v>
+        <v>272</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>24</v>
@@ -6767,13 +6713,13 @@
         <v>7741</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -6782,13 +6728,13 @@
         <v>1124</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -6797,13 +6743,13 @@
         <v>8865</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6818,13 +6764,13 @@
         <v>181201</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="H11" s="7">
         <v>123</v>
@@ -6833,10 +6779,10 @@
         <v>94674</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>24</v>
@@ -6848,13 +6794,13 @@
         <v>275875</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>361</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6922,13 +6868,13 @@
         <v>2612</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>229</v>
+        <v>354</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>265</v>
+        <v>95</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -6937,13 +6883,13 @@
         <v>1834</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>119</v>
+        <v>357</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -6952,13 +6898,13 @@
         <v>4446</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>365</v>
+        <v>105</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>46</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6973,13 +6919,13 @@
         <v>178965</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>237</v>
+        <v>360</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>269</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>176</v>
@@ -6988,13 +6934,13 @@
         <v>132330</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>126</v>
+        <v>364</v>
       </c>
       <c r="M14" s="7">
         <v>333</v>
@@ -7003,13 +6949,13 @@
         <v>311295</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>370</v>
+        <v>110</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>51</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7065,7 +7011,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7083,7 +7029,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7092,13 +7038,13 @@
         <v>481</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7107,13 +7053,13 @@
         <v>481</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>375</v>
+        <v>174</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7131,7 +7077,7 @@
         <v>24</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -7143,10 +7089,10 @@
         <v>9315</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>24</v>
@@ -7158,10 +7104,10 @@
         <v>43845</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>380</v>
+        <v>181</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>24</v>
@@ -7220,7 +7166,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7232,13 +7178,13 @@
         <v>5208</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -7247,13 +7193,13 @@
         <v>2400</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>385</v>
+        <v>260</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>84</v>
+        <v>340</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -7262,13 +7208,13 @@
         <v>7609</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>388</v>
+        <v>317</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7283,13 +7229,13 @@
         <v>164216</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="H20" s="7">
         <v>145</v>
@@ -7298,13 +7244,13 @@
         <v>100936</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>393</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>89</v>
+        <v>342</v>
       </c>
       <c r="M20" s="7">
         <v>349</v>
@@ -7313,13 +7259,13 @@
         <v>265150</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>397</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7390,10 +7336,10 @@
         <v>31</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -7402,13 +7348,13 @@
         <v>8835</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>47</v>
+        <v>386</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>400</v>
+        <v>197</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="M22" s="7">
         <v>20</v>
@@ -7417,13 +7363,13 @@
         <v>15909</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7441,10 +7387,10 @@
         <v>38</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="H23" s="7">
         <v>275</v>
@@ -7453,13 +7399,13 @@
         <v>311661</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>52</v>
+        <v>393</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>408</v>
+        <v>203</v>
       </c>
       <c r="M23" s="7">
         <v>557</v>
@@ -7468,13 +7414,13 @@
         <v>613515</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7542,13 +7488,13 @@
         <v>3124</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>121</v>
+        <v>398</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>413</v>
+        <v>318</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -7557,13 +7503,13 @@
         <v>808</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -7572,13 +7518,13 @@
         <v>3932</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>416</v>
+        <v>235</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>418</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7593,13 +7539,13 @@
         <v>322840</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>127</v>
+        <v>403</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>419</v>
+        <v>323</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="H26" s="7">
         <v>135</v>
@@ -7608,10 +7554,10 @@
         <v>120652</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>24</v>
@@ -7623,13 +7569,13 @@
         <v>443492</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>423</v>
+        <v>245</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>424</v>
+        <v>272</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7697,13 +7643,13 @@
         <v>29077</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>336</v>
+        <v>409</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="H28" s="7">
         <v>22</v>
@@ -7712,13 +7658,13 @@
         <v>15483</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>428</v>
+        <v>378</v>
       </c>
       <c r="M28" s="7">
         <v>58</v>
@@ -7727,13 +7673,13 @@
         <v>44561</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7748,28 +7694,28 @@
         <v>1582375</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>340</v>
+        <v>415</v>
       </c>
       <c r="H29" s="7">
         <v>1173</v>
       </c>
       <c r="I29" s="7">
-        <v>971539</v>
+        <v>971538</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>433</v>
+        <v>383</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M29" s="7">
         <v>2718</v>
@@ -7778,13 +7724,13 @@
         <v>2553913</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7811,7 +7757,7 @@
         <v>1195</v>
       </c>
       <c r="I30" s="7">
-        <v>987022</v>
+        <v>987021</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>26</v>

--- a/data/trans_orig/P32A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P32A-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FA64B85-A492-47B9-8C39-E773CDDBA35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D09497D-40D1-4EA8-AF11-0CEC9337AE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7AE2C47C-B6C3-4BAD-BA2C-FBF4AC690B91}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6F677D16-12DA-4916-8121-21F53FE5F462}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="421">
   <si>
     <t>Población según si le ha molestado que le critiquen su forma de beber en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -440,7 +440,58 @@
     <t>Población según si le ha molestado que le critiquen su forma de beber en 2012 (Tasa respuesta: 44,15%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
   </si>
   <si>
     <t>1,38%</t>
@@ -509,81 +560,63 @@
     <t>98,21%</t>
   </si>
   <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
     <t>6,72%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
   </si>
   <si>
     <t>93,28%</t>
   </si>
   <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
     <t>98,91%</t>
   </si>
   <si>
@@ -1007,9 +1040,6 @@
     <t>1,29%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
     <t>97,33%</t>
   </si>
   <si>
@@ -1022,277 +1052,256 @@
     <t>98,24%</t>
   </si>
   <si>
-    <t>97,72%</t>
-  </si>
-  <si>
     <t>98,71%</t>
   </si>
   <si>
     <t>Población según si le ha molestado que le critiquen su forma de beber en 2023 (Tasa respuesta: 31,75%)</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
+    <t>5,03%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
   </si>
   <si>
     <t>98,83%</t>
   </si>
   <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
   </si>
   <si>
     <t>3,79%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
   </si>
   <si>
     <t>96,21%</t>
   </si>
   <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
   </si>
   <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
   </si>
   <si>
     <t>98,63%</t>
   </si>
   <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
   </si>
   <si>
     <t>99,77%</t>
   </si>
   <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
   </si>
 </sst>
 </file>
@@ -1704,7 +1713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD6351E-2D02-4937-8224-CBB275976205}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041151F2-07E4-443F-92DB-C493766F8964}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3235,7 +3244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B9AA52-79DE-4D5C-BD5B-7C917EDC08B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287A2943-59DA-4724-B59F-EC1B7AA00A0A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3353,43 +3362,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="D4" s="7">
+        <v>22734</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>133</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5044</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="N4" s="7">
+        <v>27777</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,43 +3413,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>145</v>
+      </c>
+      <c r="D5" s="7">
+        <v>152591</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="I5" s="7">
+        <v>104648</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>236</v>
+      </c>
+      <c r="N5" s="7">
+        <v>257240</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,43 +3464,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>168</v>
+      </c>
+      <c r="D6" s="7">
+        <v>175325</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="I6" s="7">
+        <v>109692</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>263</v>
+      </c>
+      <c r="N6" s="7">
+        <v>285017</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,10 +3523,10 @@
         <v>4251</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>73</v>
@@ -3517,7 +3544,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -3526,13 +3553,13 @@
         <v>5279</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3574,13 @@
         <v>304822</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>78</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="H8" s="7">
         <v>138</v>
@@ -3565,7 +3592,7 @@
         <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>24</v>
@@ -3577,13 +3604,13 @@
         <v>455155</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3678,13 @@
         <v>935</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3672,7 +3699,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3681,13 +3708,13 @@
         <v>935</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,10 +3729,10 @@
         <v>200511</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>24</v>
@@ -3720,7 +3747,7 @@
         <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -3732,10 +3759,10 @@
         <v>324094</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>24</v>
@@ -3800,49 +3827,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>24624</v>
+        <v>1891</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="H13" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>5044</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="M13" s="7">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>29668</v>
+        <v>1891</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,49 +3878,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>316</v>
+        <v>171</v>
       </c>
       <c r="D14" s="7">
-        <v>341730</v>
+        <v>189138</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="H14" s="7">
-        <v>174</v>
+        <v>83</v>
       </c>
       <c r="I14" s="7">
-        <v>191990</v>
+        <v>87342</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="M14" s="7">
-        <v>490</v>
+        <v>254</v>
       </c>
       <c r="N14" s="7">
-        <v>533720</v>
+        <v>276480</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>167</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3902,10 +3929,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>341</v>
+        <v>173</v>
       </c>
       <c r="D15" s="7">
-        <v>366354</v>
+        <v>191029</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>26</v>
@@ -3917,10 +3944,10 @@
         <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="I15" s="7">
-        <v>197034</v>
+        <v>87342</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -3932,10 +3959,10 @@
         <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>519</v>
+        <v>256</v>
       </c>
       <c r="N15" s="7">
-        <v>563388</v>
+        <v>278371</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -3961,13 +3988,13 @@
         <v>5138</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3976,13 +4003,13 @@
         <v>893</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -3991,13 +4018,13 @@
         <v>6031</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,13 +4039,13 @@
         <v>123070</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -4027,10 +4054,10 @@
         <v>53216</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>24</v>
@@ -4042,13 +4069,13 @@
         <v>176286</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,13 +4143,13 @@
         <v>1054</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4131,13 +4158,13 @@
         <v>1027</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4146,13 +4173,13 @@
         <v>2081</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,10 +4194,10 @@
         <v>181779</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>24</v>
@@ -4182,10 +4209,10 @@
         <v>94206</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>24</v>
@@ -4197,10 +4224,10 @@
         <v>275985</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>24</v>
@@ -4271,13 +4298,13 @@
         <v>9237</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -4286,13 +4313,13 @@
         <v>1002</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -4301,7 +4328,7 @@
         <v>10239</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>106</v>
@@ -4322,13 +4349,13 @@
         <v>385417</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="H23" s="7">
         <v>191</v>
@@ -4337,10 +4364,10 @@
         <v>210215</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>24</v>
@@ -4352,7 +4379,7 @@
         <v>595632</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>21</v>
@@ -4426,13 +4453,13 @@
         <v>6421</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4447,7 +4474,7 @@
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -4456,13 +4483,13 @@
         <v>6421</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,13 +4504,13 @@
         <v>446392</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="H26" s="7">
         <v>194</v>
@@ -4495,7 +4522,7 @@
         <v>24</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>26</v>
@@ -4507,13 +4534,13 @@
         <v>658300</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,13 +4608,13 @@
         <v>51661</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="H28" s="7">
         <v>8</v>
@@ -4596,13 +4623,13 @@
         <v>8993</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="M28" s="7">
         <v>56</v>
@@ -4611,13 +4638,13 @@
         <v>60654</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,13 +4659,13 @@
         <v>1983719</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="H29" s="7">
         <v>951</v>
@@ -4647,28 +4674,28 @@
         <v>1035453</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="M29" s="7">
         <v>2817</v>
       </c>
       <c r="N29" s="7">
-        <v>3019172</v>
+        <v>3019173</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,7 +4737,7 @@
         <v>2873</v>
       </c>
       <c r="N30" s="7">
-        <v>3079826</v>
+        <v>3079827</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>26</v>
@@ -4748,7 +4775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC392370-1724-4B1A-8B1C-E9615645EE7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49CCB34E-1252-49EC-A6E3-98C15647C53F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4765,7 +4792,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4872,13 +4899,13 @@
         <v>9356</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4887,13 +4914,13 @@
         <v>3846</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -4902,13 +4929,13 @@
         <v>13202</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,13 +4950,13 @@
         <v>169316</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="H5" s="7">
         <v>101</v>
@@ -4938,13 +4965,13 @@
         <v>102315</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="M5" s="7">
         <v>258</v>
@@ -4953,13 +4980,13 @@
         <v>271631</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,13 +5054,13 @@
         <v>6584</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>120</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5042,13 +5069,13 @@
         <v>1109</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -5057,13 +5084,13 @@
         <v>7693</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>83</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5078,10 +5105,10 @@
         <v>261154</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>128</v>
@@ -5093,10 +5120,10 @@
         <v>101150</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>24</v>
@@ -5108,10 +5135,10 @@
         <v>362304</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>87</v>
@@ -5182,13 +5209,13 @@
         <v>865</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5203,7 +5230,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -5212,13 +5239,13 @@
         <v>865</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,10 +5260,10 @@
         <v>204250</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>24</v>
@@ -5251,7 +5278,7 @@
         <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -5263,10 +5290,10 @@
         <v>325826</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>24</v>
@@ -5343,7 +5370,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5373,7 +5400,7 @@
         <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,7 +5418,7 @@
         <v>51</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>24</v>
@@ -5421,7 +5448,7 @@
         <v>126</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>24</v>
@@ -5492,13 +5519,13 @@
         <v>2857</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5513,7 +5540,7 @@
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -5525,10 +5552,10 @@
         <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,13 +5570,13 @@
         <v>88320</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -5561,7 +5588,7 @@
         <v>24</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -5570,16 +5597,16 @@
         <v>128</v>
       </c>
       <c r="N17" s="7">
-        <v>125795</v>
+        <v>125794</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,7 +5648,7 @@
         <v>131</v>
       </c>
       <c r="N18" s="7">
-        <v>128652</v>
+        <v>128651</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>26</v>
@@ -5650,10 +5677,10 @@
         <v>94</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -5662,13 +5689,13 @@
         <v>2135</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -5677,13 +5704,13 @@
         <v>4872</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>75</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5701,10 +5728,10 @@
         <v>99</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="H20" s="7">
         <v>103</v>
@@ -5713,10 +5740,10 @@
         <v>103466</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>24</v>
@@ -5728,10 +5755,10 @@
         <v>289782</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>80</v>
@@ -5802,13 +5829,13 @@
         <v>14473</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -5817,13 +5844,13 @@
         <v>4258</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -5832,13 +5859,13 @@
         <v>18731</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5853,13 +5880,13 @@
         <v>365299</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="H23" s="7">
         <v>236</v>
@@ -5868,13 +5895,13 @@
         <v>251130</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="M23" s="7">
         <v>553</v>
@@ -5883,13 +5910,13 @@
         <v>616429</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,13 +5984,13 @@
         <v>1872</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -5972,13 +5999,13 @@
         <v>4136</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -5990,10 +6017,10 @@
         <v>120</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,10 +6035,10 @@
         <v>454554</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>24</v>
@@ -6023,13 +6050,13 @@
         <v>259921</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="M26" s="7">
         <v>670</v>
@@ -6041,10 +6068,10 @@
         <v>128</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6115,10 +6142,10 @@
         <v>63</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="H28" s="7">
         <v>14</v>
@@ -6130,10 +6157,10 @@
         <v>96</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="M28" s="7">
         <v>51</v>
@@ -6142,13 +6169,13 @@
         <v>55495</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>322</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6166,10 +6193,10 @@
         <v>69</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="H29" s="7">
         <v>1081</v>
@@ -6181,10 +6208,10 @@
         <v>101</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="M29" s="7">
         <v>2938</v>
@@ -6193,13 +6220,13 @@
         <v>3091179</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>327</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6279,7 +6306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65F3AD6-C85E-46AA-BC6A-3681B85ACC25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAAB29A-0381-476F-B409-9F8C3A852ACF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6296,7 +6323,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6400,16 +6427,16 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>1942</v>
+        <v>2315</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6424,22 +6451,22 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>1942</v>
+        <v>2315</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>333</v>
+        <v>228</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6451,13 +6478,13 @@
         <v>182</v>
       </c>
       <c r="D5" s="7">
-        <v>152538</v>
+        <v>177574</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>24</v>
@@ -6466,13 +6493,13 @@
         <v>163</v>
       </c>
       <c r="I5" s="7">
-        <v>84957</v>
+        <v>90683</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -6481,13 +6508,13 @@
         <v>345</v>
       </c>
       <c r="N5" s="7">
-        <v>237495</v>
+        <v>268257</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>338</v>
+        <v>236</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>24</v>
@@ -6502,7 +6529,7 @@
         <v>184</v>
       </c>
       <c r="D6" s="7">
-        <v>154480</v>
+        <v>179889</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>26</v>
@@ -6517,7 +6544,7 @@
         <v>163</v>
       </c>
       <c r="I6" s="7">
-        <v>84957</v>
+        <v>90683</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>26</v>
@@ -6532,7 +6559,7 @@
         <v>347</v>
       </c>
       <c r="N6" s="7">
-        <v>239437</v>
+        <v>270572</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>26</v>
@@ -6555,16 +6582,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1376</v>
+        <v>1320</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6579,22 +6606,22 @@
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>1376</v>
+        <v>1320</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>49</v>
+        <v>229</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>270</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6606,13 +6633,13 @@
         <v>174</v>
       </c>
       <c r="D8" s="7">
-        <v>246230</v>
+        <v>249030</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>24</v>
@@ -6621,13 +6648,13 @@
         <v>138</v>
       </c>
       <c r="I8" s="7">
-        <v>117014</v>
+        <v>109407</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -6636,13 +6663,13 @@
         <v>312</v>
       </c>
       <c r="N8" s="7">
-        <v>363245</v>
+        <v>358437</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>54</v>
+        <v>237</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>272</v>
+        <v>350</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>24</v>
@@ -6657,7 +6684,7 @@
         <v>175</v>
       </c>
       <c r="D9" s="7">
-        <v>247606</v>
+        <v>250350</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>26</v>
@@ -6672,7 +6699,7 @@
         <v>138</v>
       </c>
       <c r="I9" s="7">
-        <v>117014</v>
+        <v>109407</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>26</v>
@@ -6687,7 +6714,7 @@
         <v>313</v>
       </c>
       <c r="N9" s="7">
-        <v>364621</v>
+        <v>359757</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>26</v>
@@ -6710,46 +6737,46 @@
         <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>7741</v>
+        <v>7397</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>345</v>
+        <v>297</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>1124</v>
+        <v>1051</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>8865</v>
+        <v>8448</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>300</v>
+        <v>356</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>348</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6761,28 +6788,28 @@
         <v>201</v>
       </c>
       <c r="D11" s="7">
-        <v>181201</v>
+        <v>177789</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="H11" s="7">
         <v>123</v>
       </c>
       <c r="I11" s="7">
-        <v>94674</v>
+        <v>89221</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>24</v>
@@ -6791,16 +6818,16 @@
         <v>324</v>
       </c>
       <c r="N11" s="7">
-        <v>275875</v>
+        <v>267010</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>353</v>
+        <v>251</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>310</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6812,7 +6839,7 @@
         <v>212</v>
       </c>
       <c r="D12" s="7">
-        <v>188942</v>
+        <v>185186</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>26</v>
@@ -6827,7 +6854,7 @@
         <v>125</v>
       </c>
       <c r="I12" s="7">
-        <v>95798</v>
+        <v>90272</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>26</v>
@@ -6842,7 +6869,7 @@
         <v>337</v>
       </c>
       <c r="N12" s="7">
-        <v>284740</v>
+        <v>275458</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>26</v>
@@ -6865,46 +6892,46 @@
         <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>2612</v>
+        <v>2498</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>354</v>
+        <v>105</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>95</v>
+        <v>270</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>355</v>
+        <v>73</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>1834</v>
+        <v>1725</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>4446</v>
+        <v>4223</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>105</v>
+        <v>365</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>359</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6916,46 +6943,46 @@
         <v>157</v>
       </c>
       <c r="D14" s="7">
-        <v>178965</v>
+        <v>174979</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>360</v>
+        <v>110</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>361</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>100</v>
+        <v>275</v>
       </c>
       <c r="H14" s="7">
         <v>176</v>
       </c>
       <c r="I14" s="7">
-        <v>132330</v>
+        <v>122620</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M14" s="7">
         <v>333</v>
       </c>
       <c r="N14" s="7">
-        <v>311295</v>
+        <v>297599</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>110</v>
+        <v>368</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>365</v>
+        <v>113</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6967,7 +6994,7 @@
         <v>160</v>
       </c>
       <c r="D15" s="7">
-        <v>181577</v>
+        <v>177477</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>26</v>
@@ -6982,7 +7009,7 @@
         <v>180</v>
       </c>
       <c r="I15" s="7">
-        <v>134164</v>
+        <v>124345</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -6997,7 +7024,7 @@
         <v>340</v>
       </c>
       <c r="N15" s="7">
-        <v>315741</v>
+        <v>301822</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -7029,37 +7056,37 @@
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>481</v>
+        <v>440</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>481</v>
+        <v>440</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7071,13 +7098,13 @@
         <v>46</v>
       </c>
       <c r="D17" s="7">
-        <v>34530</v>
+        <v>31146</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -7086,13 +7113,13 @@
         <v>18</v>
       </c>
       <c r="I17" s="7">
-        <v>9315</v>
+        <v>8143</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>24</v>
@@ -7101,13 +7128,13 @@
         <v>64</v>
       </c>
       <c r="N17" s="7">
-        <v>43845</v>
+        <v>39289</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>24</v>
@@ -7122,7 +7149,7 @@
         <v>46</v>
       </c>
       <c r="D18" s="7">
-        <v>34530</v>
+        <v>31146</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>26</v>
@@ -7137,7 +7164,7 @@
         <v>19</v>
       </c>
       <c r="I18" s="7">
-        <v>9796</v>
+        <v>8583</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>26</v>
@@ -7152,7 +7179,7 @@
         <v>65</v>
       </c>
       <c r="N18" s="7">
-        <v>44326</v>
+        <v>39729</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>26</v>
@@ -7175,46 +7202,46 @@
         <v>7</v>
       </c>
       <c r="D19" s="7">
-        <v>5208</v>
+        <v>4976</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>374</v>
+        <v>47</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>2400</v>
+        <v>2216</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>260</v>
+        <v>379</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>340</v>
+        <v>121</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
       </c>
       <c r="N19" s="7">
-        <v>7609</v>
+        <v>7192</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>317</v>
+        <v>382</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7226,46 +7253,46 @@
         <v>204</v>
       </c>
       <c r="D20" s="7">
-        <v>164216</v>
+        <v>160072</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>379</v>
+        <v>52</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="H20" s="7">
         <v>145</v>
       </c>
       <c r="I20" s="7">
-        <v>100936</v>
+        <v>94204</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>386</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>342</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>349</v>
       </c>
       <c r="N20" s="7">
-        <v>265150</v>
+        <v>254276</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>324</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7277,7 +7304,7 @@
         <v>211</v>
       </c>
       <c r="D21" s="7">
-        <v>169424</v>
+        <v>165048</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>26</v>
@@ -7292,7 +7319,7 @@
         <v>148</v>
       </c>
       <c r="I21" s="7">
-        <v>103336</v>
+        <v>96420</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>26</v>
@@ -7307,7 +7334,7 @@
         <v>359</v>
       </c>
       <c r="N21" s="7">
-        <v>272759</v>
+        <v>261468</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -7330,46 +7357,46 @@
         <v>9</v>
       </c>
       <c r="D22" s="7">
-        <v>7074</v>
+        <v>6788</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
       </c>
       <c r="I22" s="7">
-        <v>8835</v>
+        <v>7965</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>197</v>
+        <v>394</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="M22" s="7">
         <v>20</v>
       </c>
       <c r="N22" s="7">
-        <v>15909</v>
+        <v>14753</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>389</v>
+        <v>36</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7381,46 +7408,46 @@
         <v>282</v>
       </c>
       <c r="D23" s="7">
-        <v>301855</v>
+        <v>301142</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="H23" s="7">
         <v>275</v>
       </c>
       <c r="I23" s="7">
-        <v>311661</v>
+        <v>391668</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>203</v>
+        <v>402</v>
       </c>
       <c r="M23" s="7">
         <v>557</v>
       </c>
       <c r="N23" s="7">
-        <v>613515</v>
+        <v>692810</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>397</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7432,7 +7459,7 @@
         <v>291</v>
       </c>
       <c r="D24" s="7">
-        <v>308929</v>
+        <v>307930</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>26</v>
@@ -7447,7 +7474,7 @@
         <v>286</v>
       </c>
       <c r="I24" s="7">
-        <v>320496</v>
+        <v>399633</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>26</v>
@@ -7462,7 +7489,7 @@
         <v>577</v>
       </c>
       <c r="N24" s="7">
-        <v>629424</v>
+        <v>707563</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>26</v>
@@ -7485,46 +7512,46 @@
         <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>3124</v>
+        <v>2695</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>398</v>
+        <v>220</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>399</v>
+        <v>108</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>318</v>
+        <v>209</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>808</v>
+        <v>699</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>400</v>
+        <v>59</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
       </c>
       <c r="N25" s="7">
-        <v>3932</v>
+        <v>3394</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>235</v>
+        <v>32</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>270</v>
+        <v>407</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7536,28 +7563,28 @@
         <v>299</v>
       </c>
       <c r="D26" s="7">
-        <v>322840</v>
+        <v>273817</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>403</v>
+        <v>224</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>323</v>
+        <v>215</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>404</v>
+        <v>114</v>
       </c>
       <c r="H26" s="7">
         <v>135</v>
       </c>
       <c r="I26" s="7">
-        <v>120652</v>
+        <v>98402</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>405</v>
+        <v>66</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>24</v>
@@ -7566,16 +7593,16 @@
         <v>434</v>
       </c>
       <c r="N26" s="7">
-        <v>443492</v>
+        <v>372218</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>245</v>
+        <v>40</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>272</v>
+        <v>409</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7587,7 +7614,7 @@
         <v>302</v>
       </c>
       <c r="D27" s="7">
-        <v>325964</v>
+        <v>276512</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>26</v>
@@ -7602,7 +7629,7 @@
         <v>136</v>
       </c>
       <c r="I27" s="7">
-        <v>121460</v>
+        <v>99101</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>26</v>
@@ -7617,7 +7644,7 @@
         <v>438</v>
       </c>
       <c r="N27" s="7">
-        <v>447424</v>
+        <v>375612</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>26</v>
@@ -7640,46 +7667,46 @@
         <v>36</v>
       </c>
       <c r="D28" s="7">
-        <v>29077</v>
+        <v>27988</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>408</v>
+        <v>324</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H28" s="7">
         <v>22</v>
       </c>
       <c r="I28" s="7">
-        <v>15483</v>
+        <v>14096</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>311</v>
+        <v>151</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>83</v>
+        <v>413</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>378</v>
+        <v>414</v>
       </c>
       <c r="M28" s="7">
         <v>58</v>
       </c>
       <c r="N28" s="7">
-        <v>44561</v>
+        <v>42084</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>412</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7691,46 +7718,46 @@
         <v>1545</v>
       </c>
       <c r="D29" s="7">
-        <v>1582375</v>
+        <v>1545549</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>413</v>
+        <v>327</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H29" s="7">
         <v>1173</v>
       </c>
       <c r="I29" s="7">
-        <v>971538</v>
+        <v>1004348</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>314</v>
+        <v>157</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>87</v>
+        <v>419</v>
       </c>
       <c r="M29" s="7">
         <v>2718</v>
       </c>
       <c r="N29" s="7">
-        <v>2553913</v>
+        <v>2549897</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>417</v>
+        <v>98</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7742,7 +7769,7 @@
         <v>1581</v>
       </c>
       <c r="D30" s="7">
-        <v>1611452</v>
+        <v>1573537</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>26</v>
@@ -7757,7 +7784,7 @@
         <v>1195</v>
       </c>
       <c r="I30" s="7">
-        <v>987021</v>
+        <v>1018444</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>26</v>
@@ -7772,7 +7799,7 @@
         <v>2776</v>
       </c>
       <c r="N30" s="7">
-        <v>2598474</v>
+        <v>2591981</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>26</v>
